--- a/documentation/User_Stories_and_Requirements_Stack.xlsx
+++ b/documentation/User_Stories_and_Requirements_Stack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
   <si>
     <t>Reference Story No.</t>
   </si>
@@ -170,10 +170,10 @@
     <t>Set up basic database tables</t>
   </si>
   <si>
-    <t>Add error page and loading screen</t>
-  </si>
-  <si>
-    <t>Show a list/map of campus locations</t>
+    <t>Add error messages for logging in</t>
+  </si>
+  <si>
+    <t>Show a map of campus locations</t>
   </si>
   <si>
     <t>Add a pop-up for each location</t>
@@ -215,10 +215,10 @@
     <t>Add quests dependent on other quests</t>
   </si>
   <si>
+    <t>Test basic quest progression.</t>
+  </si>
+  <si>
     <t>Create final quests for presentation</t>
-  </si>
-  <si>
-    <t>Test basic quest progression.</t>
   </si>
   <si>
     <t>Add help page</t>
@@ -1243,6 +1243,9 @@
       <c r="E5" s="13">
         <v>1.0</v>
       </c>
+      <c r="G5" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="11">
@@ -1280,6 +1283,9 @@
       <c r="E7" s="13">
         <v>1.0</v>
       </c>
+      <c r="G7" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="11">
@@ -1297,6 +1303,9 @@
       <c r="E8" s="11">
         <v>1.0</v>
       </c>
+      <c r="G8" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="13">
@@ -1391,7 +1400,9 @@
       <c r="D13" s="13">
         <v>2.0</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="13">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="11">
@@ -1406,7 +1417,9 @@
       <c r="D14" s="11">
         <v>3.0</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="13">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="13">
@@ -1421,7 +1434,9 @@
       <c r="D15" s="13">
         <v>3.0</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="13">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="11">
@@ -1436,7 +1451,9 @@
       <c r="D16" s="11">
         <v>1.0</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="13">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="13">
@@ -1451,7 +1468,9 @@
       <c r="D17" s="13">
         <v>1.0</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="13">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="11">
@@ -1466,7 +1485,9 @@
       <c r="D18" s="11">
         <v>2.0</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="13">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="13">
@@ -1481,7 +1502,9 @@
       <c r="D19" s="13">
         <v>3.0</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="13">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="11">
@@ -1496,7 +1519,9 @@
       <c r="D20" s="11">
         <v>3.0</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="13">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="13">
@@ -1511,7 +1536,9 @@
       <c r="D21" s="17">
         <v>2.0</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="13">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="11">
@@ -1526,37 +1553,41 @@
       <c r="D22" s="17">
         <v>1.0</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="13">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="13">
         <v>22.0</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="19">
-        <v>13.0</v>
-      </c>
-      <c r="D23" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="E23" s="13"/>
+      <c r="C23" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="D23" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="11">
         <v>23.0</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="D24" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="E24" s="11"/>
+      <c r="C24" s="19">
+        <v>13.0</v>
+      </c>
+      <c r="D24" s="20">
+        <v>4.0</v>
+      </c>
+      <c r="E24" s="13"/>
     </row>
     <row r="25">
       <c r="A25" s="13">

--- a/documentation/User_Stories_and_Requirements_Stack.xlsx
+++ b/documentation/User_Stories_and_Requirements_Stack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
   <si>
     <t>Reference Story No.</t>
   </si>
@@ -176,9 +176,6 @@
     <t>Show a map of campus locations</t>
   </si>
   <si>
-    <t>Add a pop-up for each location</t>
-  </si>
-  <si>
     <t>Show quests in each location in the pop-up</t>
   </si>
   <si>
@@ -221,22 +218,25 @@
     <t>Create final quests for presentation</t>
   </si>
   <si>
+    <t>Add leaderboard</t>
+  </si>
+  <si>
+    <t>Add animation when a quest is checked off</t>
+  </si>
+  <si>
+    <t>Add map navigation tools</t>
+  </si>
+  <si>
+    <t>Make site work well on different computers</t>
+  </si>
+  <si>
+    <t>Make site work on phones vertically</t>
+  </si>
+  <si>
+    <t>Allow rotating screen on phones</t>
+  </si>
+  <si>
     <t>Add help page</t>
-  </si>
-  <si>
-    <t>Add animation when a quest is checked off</t>
-  </si>
-  <si>
-    <t>Add map navigation tools</t>
-  </si>
-  <si>
-    <t>Make site work well on different computers</t>
-  </si>
-  <si>
-    <t>Make site work on phones vertically</t>
-  </si>
-  <si>
-    <t>Allow rotating screen on phones</t>
   </si>
   <si>
     <t>Check color contrast and text labels</t>
@@ -768,7 +768,7 @@
     <col customWidth="1" min="4" max="4" width="55.5"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="22.5" customHeight="1">
       <c r="A3" s="4">
         <v>2.0</v>
       </c>
@@ -813,7 +813,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="22.5" customHeight="1">
       <c r="A4" s="4">
         <v>3.0</v>
       </c>
@@ -827,7 +827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="22.5" customHeight="1">
       <c r="A5" s="4">
         <v>4.0</v>
       </c>
@@ -841,7 +841,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="4">
         <v>5.0</v>
       </c>
@@ -855,7 +855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="4">
         <v>6.0</v>
       </c>
@@ -869,7 +869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="22.5" customHeight="1">
       <c r="A8" s="4">
         <v>7.0</v>
       </c>
@@ -883,7 +883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="22.5" customHeight="1">
       <c r="A9" s="4">
         <v>8.0</v>
       </c>
@@ -897,7 +897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="22.5" customHeight="1">
       <c r="A10" s="4">
         <v>9.0</v>
       </c>
@@ -911,7 +911,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="22.5" customHeight="1">
       <c r="A11" s="4">
         <v>10.0</v>
       </c>
@@ -925,7 +925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="4">
         <v>11.0</v>
       </c>
@@ -939,7 +939,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="22.5" customHeight="1">
       <c r="A13" s="4">
         <v>12.0</v>
       </c>
@@ -953,7 +953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="4">
         <v>13.0</v>
       </c>
@@ -967,7 +967,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="4">
         <v>14.0</v>
       </c>
@@ -981,7 +981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="22.5" customHeight="1">
       <c r="A16" s="4">
         <v>15.0</v>
       </c>
@@ -995,7 +995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="22.5" customHeight="1">
       <c r="A17" s="4">
         <v>16.0</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="22.5" customHeight="1">
       <c r="A18" s="4">
         <v>17.0</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="4">
         <v>18.0</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="22.5" customHeight="1">
       <c r="A20" s="4">
         <v>19.0</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="22.5" customHeight="1">
       <c r="A21" s="4">
         <v>20.0</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="4">
         <v>21.0</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="22.5" customHeight="1">
       <c r="A23" s="4">
         <v>22.0</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="22.5" customHeight="1">
       <c r="A24" s="4">
         <v>23.0</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="22.5" customHeight="1">
       <c r="A25" s="4">
         <v>24.0</v>
       </c>
@@ -1331,8 +1331,8 @@
       <c r="A10" s="11">
         <v>9.0</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>54</v>
+      <c r="B10" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="C10" s="11">
         <v>5.0</v>
@@ -1352,7 +1352,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="13">
         <v>5.0</v>
@@ -1372,7 +1372,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="11">
         <v>5.0</v>
@@ -1392,7 +1392,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="13">
         <v>5.0</v>
@@ -1402,6 +1402,9 @@
       </c>
       <c r="E13" s="13">
         <v>2.0</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -1409,7 +1412,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="11">
         <v>3.0</v>
@@ -1419,6 +1422,9 @@
       </c>
       <c r="E14" s="13">
         <v>2.0</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -1426,7 +1432,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="13">
         <v>3.0</v>
@@ -1436,6 +1442,9 @@
       </c>
       <c r="E15" s="13">
         <v>2.0</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -1443,7 +1452,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="11">
         <v>5.0</v>
@@ -1453,6 +1462,9 @@
       </c>
       <c r="E16" s="13">
         <v>2.0</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -1460,7 +1472,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="13">
         <v>3.0</v>
@@ -1470,6 +1482,9 @@
       </c>
       <c r="E17" s="13">
         <v>2.0</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18">
@@ -1477,7 +1492,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="11">
         <v>5.0</v>
@@ -1487,6 +1502,9 @@
       </c>
       <c r="E18" s="13">
         <v>2.0</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -1494,7 +1512,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="13">
         <v>3.0</v>
@@ -1504,6 +1522,9 @@
       </c>
       <c r="E19" s="13">
         <v>2.0</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -1511,7 +1532,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="11">
         <v>3.0</v>
@@ -1521,6 +1542,9 @@
       </c>
       <c r="E20" s="13">
         <v>2.0</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -1528,7 +1552,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="16">
         <v>8.0</v>
@@ -1538,6 +1562,9 @@
       </c>
       <c r="E21" s="13">
         <v>2.0</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1545,7 +1572,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="16">
         <v>8.0</v>
@@ -1555,6 +1582,9 @@
       </c>
       <c r="E22" s="13">
         <v>2.0</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -1562,7 +1592,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="13">
         <v>3.0</v>
@@ -1572,6 +1602,9 @@
       </c>
       <c r="E23" s="13">
         <v>2.0</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24">
@@ -1579,7 +1612,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="19">
         <v>13.0</v>
@@ -1587,14 +1620,16 @@
       <c r="D24" s="20">
         <v>4.0</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="13">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="13">
         <v>24.0</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="11">
         <v>5.0</v>
@@ -1602,14 +1637,16 @@
       <c r="D25" s="11">
         <v>1.0</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="13">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="11">
         <v>25.0</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="13">
         <v>5.0</v>
@@ -1617,14 +1654,16 @@
       <c r="D26" s="13">
         <v>2.0</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="13">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="13">
         <v>26.0</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="11">
         <v>8.0</v>
@@ -1632,14 +1671,16 @@
       <c r="D27" s="11">
         <v>2.0</v>
       </c>
-      <c r="E27" s="11"/>
+      <c r="E27" s="13">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="11">
         <v>27.0</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="13">
         <v>5.0</v>
@@ -1647,14 +1688,16 @@
       <c r="D28" s="13">
         <v>1.0</v>
       </c>
-      <c r="E28" s="13"/>
+      <c r="E28" s="13">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="21">
         <v>28.0</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C29" s="22">
         <v>13.0</v>
@@ -1662,14 +1705,16 @@
       <c r="D29" s="19">
         <v>1.0</v>
       </c>
-      <c r="E29" s="11"/>
+      <c r="E29" s="13">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="23">
         <v>29.0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30" s="11">
         <v>3.0</v>
@@ -1677,14 +1722,16 @@
       <c r="D30" s="11">
         <v>3.0</v>
       </c>
-      <c r="E30" s="21"/>
+      <c r="E30" s="13">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="23">
         <v>30.0</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C31" s="11">
         <v>3.0</v>
@@ -1692,7 +1739,9 @@
       <c r="D31" s="11">
         <v>3.0</v>
       </c>
-      <c r="E31" s="23"/>
+      <c r="E31" s="13">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="23">
@@ -1707,7 +1756,9 @@
       <c r="D32" s="13">
         <v>3.0</v>
       </c>
-      <c r="E32" s="23"/>
+      <c r="E32" s="13">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="23">
@@ -1722,7 +1773,9 @@
       <c r="D33" s="11">
         <v>2.0</v>
       </c>
-      <c r="E33" s="23"/>
+      <c r="E33" s="13">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="23">
@@ -1737,7 +1790,9 @@
       <c r="D34" s="21">
         <v>2.0</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="13">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="23">

--- a/documentation/User_Stories_and_Requirements_Stack.xlsx
+++ b/documentation/User_Stories_and_Requirements_Stack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>Reference Story No.</t>
   </si>
@@ -230,19 +230,22 @@
     <t>Make site work well on different computers</t>
   </si>
   <si>
-    <t>Make site work on phones vertically</t>
+    <t>Make site display well on phones vertically</t>
   </si>
   <si>
     <t>Allow rotating screen on phones</t>
   </si>
   <si>
-    <t>Add help page</t>
-  </si>
-  <si>
-    <t>Check color contrast and text labels</t>
-  </si>
-  <si>
-    <t>Add admin login and access</t>
+    <t>Add a hamburger menu</t>
+  </si>
+  <si>
+    <t>Fetch mapdata from backend</t>
+  </si>
+  <si>
+    <t>Add loading animation</t>
+  </si>
+  <si>
+    <t>Add admin account type</t>
   </si>
   <si>
     <t>Let admin add or edit locations</t>
@@ -251,13 +254,10 @@
     <t>Let admin add or edit quests</t>
   </si>
   <si>
+    <t>Let admin delete items</t>
+  </si>
+  <si>
     <t>Add privacy policy and terms</t>
-  </si>
-  <si>
-    <t>Add feedback form for users</t>
-  </si>
-  <si>
-    <t>Add activity log for admin changes</t>
   </si>
   <si>
     <t>Test login and progress features</t>
@@ -459,10 +459,10 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1623,6 +1623,9 @@
       <c r="E24" s="13">
         <v>3.0</v>
       </c>
+      <c r="G24" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="13">
@@ -1640,6 +1643,9 @@
       <c r="E25" s="13">
         <v>3.0</v>
       </c>
+      <c r="G25" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="11">
@@ -1657,6 +1663,9 @@
       <c r="E26" s="13">
         <v>3.0</v>
       </c>
+      <c r="G26" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="13">
@@ -1674,6 +1683,9 @@
       <c r="E27" s="13">
         <v>3.0</v>
       </c>
+      <c r="G27" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="11">
@@ -1691,6 +1703,9 @@
       <c r="E28" s="13">
         <v>3.0</v>
       </c>
+      <c r="G28" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="21">
@@ -1708,6 +1723,9 @@
       <c r="E29" s="13">
         <v>3.0</v>
       </c>
+      <c r="G29" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="23">
@@ -1725,140 +1743,172 @@
       <c r="E30" s="13">
         <v>3.0</v>
       </c>
+      <c r="G30" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="23">
+      <c r="A31" s="21">
         <v>30.0</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="D31" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="E31" s="13">
-        <v>3.0</v>
+      <c r="C31" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="D31" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="E31" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="23">
         <v>31.0</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="C32" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="D32" s="11">
         <v>3.0</v>
       </c>
       <c r="E32" s="13">
         <v>3.0</v>
       </c>
+      <c r="G32" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="23">
+      <c r="A33" s="21">
         <v>32.0</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="D33" s="11">
-        <v>2.0</v>
+      <c r="C33" s="13">
+        <v>5.0</v>
+      </c>
+      <c r="D33" s="13">
+        <v>3.0</v>
       </c>
       <c r="E33" s="13">
         <v>3.0</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="23">
         <v>33.0</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="21">
-        <v>8.0</v>
-      </c>
-      <c r="D34" s="21">
+      <c r="C34" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="D34" s="11">
         <v>2.0</v>
       </c>
       <c r="E34" s="13">
         <v>3.0</v>
       </c>
+      <c r="G34" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="23">
+      <c r="A35" s="21">
         <v>34.0</v>
       </c>
       <c r="B35" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="21">
         <v>8.0</v>
       </c>
-      <c r="D35" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="E35" s="23"/>
+      <c r="D35" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="E35" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="23">
         <v>35.0</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="24" t="s">
         <v>79</v>
       </c>
       <c r="C36" s="23">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="D36" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="E36" s="23"/>
+        <v>2.0</v>
+      </c>
+      <c r="E36" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="23">
+      <c r="A37" s="21">
         <v>36.0</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C37" s="23">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="D37" s="23">
         <v>3.0</v>
       </c>
-      <c r="E37" s="23"/>
+      <c r="E37" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="23">
         <v>37.0</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="24" t="s">
         <v>81</v>
       </c>
       <c r="C38" s="23">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D38" s="23">
         <v>3.0</v>
       </c>
-      <c r="E38" s="23"/>
+      <c r="E38" s="23">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="23">
+      <c r="A39" s="21">
         <v>38.0</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="24" t="s">
         <v>82</v>
       </c>
       <c r="C39" s="23">
@@ -1867,13 +1917,15 @@
       <c r="D39" s="23">
         <v>2.0</v>
       </c>
-      <c r="E39" s="23"/>
+      <c r="E39" s="23">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="23">
         <v>39.0</v>
       </c>
-      <c r="B40" s="25" t="s">
+      <c r="B40" s="24" t="s">
         <v>83</v>
       </c>
       <c r="C40" s="23">
@@ -1882,13 +1934,15 @@
       <c r="D40" s="23">
         <v>3.0</v>
       </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="23">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="23">
+      <c r="A41" s="21">
         <v>40.0</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="24" t="s">
         <v>84</v>
       </c>
       <c r="C41" s="23">
@@ -1897,13 +1951,15 @@
       <c r="D41" s="23">
         <v>3.0</v>
       </c>
-      <c r="E41" s="23"/>
+      <c r="E41" s="23">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="23">
         <v>41.0</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>85</v>
       </c>
       <c r="C42" s="23">
@@ -1912,13 +1968,15 @@
       <c r="D42" s="23">
         <v>2.0</v>
       </c>
-      <c r="E42" s="23"/>
+      <c r="E42" s="23">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="23">
+      <c r="A43" s="21">
         <v>42.0</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="24" t="s">
         <v>86</v>
       </c>
       <c r="C43" s="23">
@@ -1927,13 +1985,15 @@
       <c r="D43" s="23">
         <v>4.0</v>
       </c>
-      <c r="E43" s="23"/>
+      <c r="E43" s="23">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="23">
         <v>43.0</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="24" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="23">
@@ -1942,13 +2002,15 @@
       <c r="D44" s="23">
         <v>2.0</v>
       </c>
-      <c r="E44" s="23"/>
+      <c r="E44" s="23">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="23">
+      <c r="A45" s="21">
         <v>44.0</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>88</v>
       </c>
       <c r="C45" s="23">
@@ -1957,7 +2019,9 @@
       <c r="D45" s="23">
         <v>2.0</v>
       </c>
-      <c r="E45" s="23"/>
+      <c r="E45" s="23">
+        <v>4.0</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/documentation/User_Stories_and_Requirements_Stack.xlsx
+++ b/documentation/User_Stories_and_Requirements_Stack.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="89">
   <si>
     <t>Reference Story No.</t>
   </si>
@@ -257,7 +257,7 @@
     <t>Let admin delete items</t>
   </si>
   <si>
-    <t>Add privacy policy and terms</t>
+    <t>Fix server console warnings</t>
   </si>
   <si>
     <t>Test login and progress features</t>
@@ -275,10 +275,10 @@
     <t>Final general UI testing</t>
   </si>
   <si>
+    <t>Write final presentation document</t>
+  </si>
+  <si>
     <t>Prepare demo and presentation</t>
-  </si>
-  <si>
-    <t>Write final report and notes</t>
   </si>
 </sst>
 </file>
@@ -521,6 +521,12 @@
         <bottom style="thin">
           <color rgb="FF356854"/>
         </bottom>
+        <vertical style="thin">
+          <color rgb="FFD4D4D4"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFD4D4D4"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -1903,6 +1909,9 @@
       <c r="E38" s="23">
         <v>4.0</v>
       </c>
+      <c r="G38" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="21">
@@ -1920,6 +1929,9 @@
       <c r="E39" s="23">
         <v>4.0</v>
       </c>
+      <c r="G39" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="23">
@@ -1937,6 +1949,9 @@
       <c r="E40" s="23">
         <v>4.0</v>
       </c>
+      <c r="G40" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="21">
@@ -1954,6 +1969,9 @@
       <c r="E41" s="23">
         <v>4.0</v>
       </c>
+      <c r="G41" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="23">
@@ -1971,6 +1989,9 @@
       <c r="E42" s="23">
         <v>4.0</v>
       </c>
+      <c r="G42" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="21">
@@ -1988,12 +2009,15 @@
       <c r="E43" s="23">
         <v>4.0</v>
       </c>
+      <c r="G43" s="10" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="23">
         <v>43.0</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="23">
@@ -2004,6 +2028,9 @@
       </c>
       <c r="E44" s="23">
         <v>4.0</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -2021,6 +2048,9 @@
       </c>
       <c r="E45" s="23">
         <v>4.0</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
